--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Ifnar2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8715449999999999</v>
+        <v>0.301559</v>
       </c>
       <c r="H2">
-        <v>2.614635</v>
+        <v>0.904677</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2570607550566701</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2570607550566701</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.57468866666667</v>
+        <v>16.69780766666667</v>
       </c>
       <c r="N2">
-        <v>133.724066</v>
+        <v>50.093423</v>
       </c>
       <c r="O2">
-        <v>0.5438239100642481</v>
+        <v>0.3087131902856588</v>
       </c>
       <c r="P2">
-        <v>0.5438239100642481</v>
+        <v>0.3087131902856588</v>
       </c>
       <c r="Q2">
-        <v>38.84884703399</v>
+        <v>5.035374182152332</v>
       </c>
       <c r="R2">
-        <v>349.6396233059099</v>
+        <v>45.318367639371</v>
       </c>
       <c r="S2">
-        <v>0.5438239100642481</v>
+        <v>0.07935804579078493</v>
       </c>
       <c r="T2">
-        <v>0.5438239100642481</v>
+        <v>0.07935804579078494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8715449999999999</v>
+        <v>0.301559</v>
       </c>
       <c r="H3">
-        <v>2.614635</v>
+        <v>0.904677</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2570607550566701</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2570607550566701</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>27.876023</v>
       </c>
       <c r="N3">
-        <v>83.62806900000001</v>
+        <v>83.628069</v>
       </c>
       <c r="O3">
-        <v>0.3400954281086752</v>
+        <v>0.5153787949052554</v>
       </c>
       <c r="P3">
-        <v>0.3400954281086753</v>
+        <v>0.5153787949052554</v>
       </c>
       <c r="Q3">
-        <v>24.295208465535</v>
+        <v>8.406265619856999</v>
       </c>
       <c r="R3">
-        <v>218.656876189815</v>
+        <v>75.65639057871299</v>
       </c>
       <c r="S3">
-        <v>0.3400954281086752</v>
+        <v>0.1324836621585417</v>
       </c>
       <c r="T3">
-        <v>0.3400954281086753</v>
+        <v>0.1324836621585417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8715449999999999</v>
+        <v>0.301559</v>
       </c>
       <c r="H4">
-        <v>2.614635</v>
+        <v>0.904677</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2570607550566701</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2570607550566701</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,208 @@
         <v>28.543758</v>
       </c>
       <c r="O4">
-        <v>0.1160806618270765</v>
+        <v>0.1759080148090858</v>
       </c>
       <c r="P4">
-        <v>0.1160806618270766</v>
+        <v>0.1759080148090857</v>
       </c>
       <c r="Q4">
-        <v>8.292389855370001</v>
+        <v>2.869209039574</v>
       </c>
       <c r="R4">
-        <v>74.63150869833001</v>
+        <v>25.822881356166</v>
       </c>
       <c r="S4">
-        <v>0.1160806618270765</v>
+        <v>0.04521904710734349</v>
       </c>
       <c r="T4">
-        <v>0.1160806618270766</v>
+        <v>0.04521904710734349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.8715450000000001</v>
+      </c>
+      <c r="H5">
+        <v>2.614635</v>
+      </c>
+      <c r="I5">
+        <v>0.7429392449433299</v>
+      </c>
+      <c r="J5">
+        <v>0.7429392449433299</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>16.69780766666667</v>
+      </c>
+      <c r="N5">
+        <v>50.093423</v>
+      </c>
+      <c r="O5">
+        <v>0.3087131902856588</v>
+      </c>
+      <c r="P5">
+        <v>0.3087131902856588</v>
+      </c>
+      <c r="Q5">
+        <v>14.552890782845</v>
+      </c>
+      <c r="R5">
+        <v>130.976017045605</v>
+      </c>
+      <c r="S5">
+        <v>0.2293551444948739</v>
+      </c>
+      <c r="T5">
+        <v>0.2293551444948739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8715450000000001</v>
+      </c>
+      <c r="H6">
+        <v>2.614635</v>
+      </c>
+      <c r="I6">
+        <v>0.7429392449433299</v>
+      </c>
+      <c r="J6">
+        <v>0.7429392449433299</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>27.876023</v>
+      </c>
+      <c r="N6">
+        <v>83.628069</v>
+      </c>
+      <c r="O6">
+        <v>0.5153787949052554</v>
+      </c>
+      <c r="P6">
+        <v>0.5153787949052554</v>
+      </c>
+      <c r="Q6">
+        <v>24.295208465535</v>
+      </c>
+      <c r="R6">
+        <v>218.656876189815</v>
+      </c>
+      <c r="S6">
+        <v>0.3828951327467137</v>
+      </c>
+      <c r="T6">
+        <v>0.3828951327467137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8715450000000001</v>
+      </c>
+      <c r="H7">
+        <v>2.614635</v>
+      </c>
+      <c r="I7">
+        <v>0.7429392449433299</v>
+      </c>
+      <c r="J7">
+        <v>0.7429392449433299</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.514586000000001</v>
+      </c>
+      <c r="N7">
+        <v>28.543758</v>
+      </c>
+      <c r="O7">
+        <v>0.1759080148090858</v>
+      </c>
+      <c r="P7">
+        <v>0.1759080148090857</v>
+      </c>
+      <c r="Q7">
+        <v>8.292389855370002</v>
+      </c>
+      <c r="R7">
+        <v>74.63150869833002</v>
+      </c>
+      <c r="S7">
+        <v>0.1306889677017423</v>
+      </c>
+      <c r="T7">
+        <v>0.1306889677017422</v>
       </c>
     </row>
   </sheetData>
